--- a/biology/Botanique/Eucalyptus_dalrympleana/Eucalyptus_dalrympleana.xlsx
+++ b/biology/Botanique/Eucalyptus_dalrympleana/Eucalyptus_dalrympleana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus dalrympleana, appelé communément eucalyptus blanc des montagnes[1] ou gommier blanc des montagnes[2], est une espèce du genre Eucalyptus, famille des Myrtaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus dalrympleana, appelé communément eucalyptus blanc des montagnes ou gommier blanc des montagnes, est une espèce du genre Eucalyptus, famille des Myrtaceae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus dalrympleana pousse comme un arbre, qui peut atteindre une hauteur de 50 mètres dans la nature[1] et un étalement de 15 m[2]. L'écorce est lisse ou reste parfois au tronc, est grise et feuilletée. Plus haut dans l'arbre, elle est blanche, grise, rose ou jaune et se décolle en longues plaques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus dalrympleana pousse comme un arbre, qui peut atteindre une hauteur de 50 mètres dans la nature et un étalement de 15 m. L'écorce est lisse ou reste parfois au tronc, est grise et feuilletée. Plus haut dans l'arbre, elle est blanche, grise, rose ou jaune et se décolle en longues plaques.
 Eucalyptus dalrympleana est hétérophylle. Les feuilles opposées disposées sur les jeunes spécimens sont circulaires à elliptiques ou ovales et gris-vert ou vert terne. Les feuilles monochromes vertes brillantes des spécimens adultes sont étroites-lancéolées ou lancéolées, avec une longueur de 10 à 20 centimètres et une largeur de 0,7 à 2,5 cm.
-Les tiges d'inflorescence font de 3 à 20 millimètres de long, sont aplaties ou anguleuses ; outre une inflorescence complète, il y a environ trois à sept inflorescences partielles. Les tiges de fleurs rondes font jusqu'à 3 mm de long. Les boutons floraux ont la forme d'un œuf d'un diamètre de 3 à 5 mm et d'une longueur de 5 à 8 mm. Les sépales forment un calyptre conique, qui a la même longueur et la même largeur que l'hypanthium. Les fleurs sont blanches[1].
-Le fruit a une longueur de 5 à 8 mm et un diamètre de 5 à 9 mm, en forme hémisphérique ou de cloche[4].
+Les tiges d'inflorescence font de 3 à 20 millimètres de long, sont aplaties ou anguleuses ; outre une inflorescence complète, il y a environ trois à sept inflorescences partielles. Les tiges de fleurs rondes font jusqu'à 3 mm de long. Les boutons floraux ont la forme d'un œuf d'un diamètre de 3 à 5 mm et d'une longueur de 5 à 8 mm. Les sépales forment un calyptre conique, qui a la même longueur et la même largeur que l'hypanthium. Les fleurs sont blanches.
+Le fruit a une longueur de 5 à 8 mm et un diamètre de 5 à 9 mm, en forme hémisphérique ou de cloche.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus bridgesiana est présent le long de la Cordillère australienne au Queensland et en Nouvelle-Galles du Sud[4], à Victoria et en Tasmanie[5].
-L'espèce est répandue dans les forêts herbeuses et clairsemées ou dans les forêts de feuillus. Elle pousse sur des sols limoneux ou sableux à haute altitude[4]. La plante meurt à partir de −14 °C[3]. En Europe, il tolère un sol légèrement calcaire et apprécie les expositions ensoleillées[2].
-Dans certaines parties du Territoire du Nord, il y a une intergradation avec Eucalyptus rubida[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus bridgesiana est présent le long de la Cordillère australienne au Queensland et en Nouvelle-Galles du Sud, à Victoria et en Tasmanie.
+L'espèce est répandue dans les forêts herbeuses et clairsemées ou dans les forêts de feuillus. Elle pousse sur des sols limoneux ou sableux à haute altitude. La plante meurt à partir de −14 °C. En Europe, il tolère un sol légèrement calcaire et apprécie les expositions ensoleillées.
+Dans certaines parties du Territoire du Nord, il y a une intergradation avec Eucalyptus rubida.
 </t>
         </is>
       </c>
@@ -578,11 +594,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus dalrympleana est une espèce très appréciée dans les jardineries[5],[6] pour sa croissance rapide[3].
-L'huile essentielle extraite de ses feuilles possède des propriétés anti-virales[3].
-Eucalyptus gundal est un hybride entre Eucalyptus gunnii et E. dalrympleana, obtenu par l'AFOCEL[Association Foret Cellulose, maintenant Institut technologique FCBA] pour la production de pâte à papier[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus dalrympleana est une espèce très appréciée dans les jardineries, pour sa croissance rapide.
+L'huile essentielle extraite de ses feuilles possède des propriétés anti-virales.
+Eucalyptus gundal est un hybride entre Eucalyptus gunnii et E. dalrympleana, obtenu par l'AFOCEL[Association Foret Cellulose, maintenant Institut technologique FCBA] pour la production de pâte à papier.
 </t>
         </is>
       </c>
